--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水人ddddd口登记</t>
+    <t>用水dd口登记</t>
   </si>
   <si>
     <t>$.name</t>
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -490,6 +490,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -498,14 +544,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +598,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,106 +621,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,187 +671,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,13 +865,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +885,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +915,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,46 +947,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水dd口登记</t>
+    <t>用水dd口33登记</t>
   </si>
   <si>
     <t>$.name</t>
@@ -451,9 +451,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -490,6 +490,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -498,8 +536,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,114 +604,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,187 +671,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -876,45 +900,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,6 +928,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -450,9 +450,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -490,6 +490,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -499,32 +574,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,51 +590,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -591,14 +599,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,25 +671,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,31 +815,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,109 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -883,8 +892,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,54 +954,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -451,8 +451,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -498,7 +498,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,6 +528,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -520,16 +544,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +560,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,16 +581,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,29 +601,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,187 +671,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,11 +865,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,6 +914,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -922,32 +943,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水dd口33登记</t>
+    <t>用水登记</t>
   </si>
   <si>
     <t>$.name</t>
@@ -450,9 +450,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -498,7 +498,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,6 +519,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -520,84 +589,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -671,103 +671,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,48 +839,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -828,30 +852,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -881,25 +896,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,17 +934,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,8 +946,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1573,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -490,6 +490,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -497,6 +534,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -505,9 +550,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,88 +596,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,187 +671,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,31 +866,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,16 +905,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,11 +937,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,16 +980,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -999,112 +999,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1573,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="4">
-        <v>400</v>
+        <v>888</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>url</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>{"token": "$loginvar.token$","content-type": "application/json"}</t>
+  </si>
+  <si>
+    <t>改了999</t>
   </si>
   <si>
     <t>cartinfo</t>
@@ -431,6 +434,9 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>77777改了</t>
   </si>
   <si>
     <t>/</t>
@@ -450,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -490,6 +496,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -499,6 +512,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -513,6 +549,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -527,8 +578,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,14 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,69 +618,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,37 +677,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,133 +821,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,21 +868,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -891,6 +882,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,20 +919,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,11 +962,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +974,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +986,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1450,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1572,22 +1578,22 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
-        <v>888</v>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="138" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1598,19 +1604,19 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
-        <v>200</v>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1619,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>url</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>{"token": "$loginvar.token$","content-type": "application/json"}</t>
-  </si>
-  <si>
-    <t>改了999</t>
   </si>
   <si>
     <t>cartinfo</t>
@@ -436,16 +433,13 @@
     </r>
   </si>
   <si>
-    <t>77777改了</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记</t>
+    <t>1609用水登记555</t>
   </si>
   <si>
     <t>$.name</t>
@@ -457,8 +451,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -497,7 +491,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,81 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -595,38 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,85 +671,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,97 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,35 +865,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +934,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -974,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,29 +980,32 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,100 +1014,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1578,22 +1572,22 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
+      <c r="F5" s="4">
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="138" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1604,19 +1598,19 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
+      <c r="F6" s="4">
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1625,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>1609用水登记555</t>
+    <t>1610用水登记555</t>
   </si>
   <si>
     <t>$.name</t>
@@ -452,8 +452,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -490,8 +490,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,89 +604,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -598,22 +614,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,25 +671,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,19 +821,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,133 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,15 +862,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -885,32 +876,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,8 +922,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>1610用水登记555</t>
+    <t>用水rrr登记</t>
   </si>
   <si>
     <t>$.name</t>
@@ -450,8 +450,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -498,8 +498,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,10 +558,56 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,96 +616,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,43 +671,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +809,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,103 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -897,24 +927,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,33 +958,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水rrr登记</t>
+    <t>用水rrr22222222登记</t>
   </si>
   <si>
     <t>$.name</t>
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -490,6 +490,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -499,8 +566,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,35 +604,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,75 +621,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,6 +671,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -683,13 +701,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,13 +743,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,79 +839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,43 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -895,6 +913,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -924,54 +962,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,35 +980,35 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,94 +1017,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水rrr22222222登记</t>
+    <t>用水登记</t>
   </si>
   <si>
     <t>$.name</t>
@@ -450,9 +450,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -491,7 +491,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,6 +499,76 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,25 +597,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,68 +613,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,31 +671,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,151 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,11 +865,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +885,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,17 +919,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,30 +944,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,7 +980,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,122 +989,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>200</v>
+        <v>888</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记</t>
+    <t>用水登记哦的说法是否</t>
   </si>
   <si>
     <t>$.name</t>
@@ -450,9 +450,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -491,9 +491,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,6 +523,51 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,11 +579,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,29 +610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -564,65 +623,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,37 +671,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,145 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -880,15 +898,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -900,39 +909,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,16 +938,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -439,7 +439,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记哦的说法是否</t>
+    <t>用水登记哦的说法是否43423</t>
   </si>
   <si>
     <t>$.name</t>
@@ -451,8 +451,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -498,9 +498,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,36 +581,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,9 +604,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,50 +618,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,187 +671,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,8 +868,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,48 +892,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -949,16 +923,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +980,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>url</t>
   </si>
@@ -431,6 +431,9 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>888方法的方式的发生大幅度</t>
   </si>
   <si>
     <t>/</t>
@@ -450,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -491,12 +494,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -504,8 +567,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,107 +622,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,18 +674,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -695,163 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +865,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -891,69 +957,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -968,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1447,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1598,19 +1601,19 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
-        <v>888</v>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1619,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记哦的说法是否43423</t>
+    <t>用水登记哦新的</t>
   </si>
   <si>
     <t>$.name</t>
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -507,6 +507,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -523,14 +599,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,52 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -601,29 +624,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,13 +674,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,169 +842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +872,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,17 +912,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,24 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -955,13 +951,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记哦新的</t>
+    <t>用水登记哦新的dd</t>
   </si>
   <si>
     <t>$.name</t>
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -507,8 +507,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,6 +546,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -530,25 +584,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,16 +600,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,47 +622,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,187 +674,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,15 +865,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -891,23 +882,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,7 +916,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,6 +937,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -950,31 +965,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,128 +986,128 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记哦新的dd</t>
+    <t>用水登记信息发工资</t>
   </si>
   <si>
     <t>$.name</t>
@@ -453,8 +453,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -494,14 +494,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,55 +592,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,39 +615,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,6 +674,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -686,25 +710,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,145 +842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,6 +865,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -879,20 +918,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,47 +957,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1457,7 +1457,7 @@
     <col min="3" max="3" width="66.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
     <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="16.2222222222222" customWidth="1"/>
   </cols>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记信息发工资</t>
+    <t>用水登记信息发工资了比新</t>
   </si>
   <si>
     <t>$.name</t>
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -494,7 +494,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,127 +624,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,43 +674,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,133 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,51 +868,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -948,6 +907,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -965,16 +950,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,16 +983,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1002,16 +1002,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,55 +1020,64 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,37 +1086,28 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记信息发工资了比新</t>
+    <t>用水登记信息发工资了比新嫩呢</t>
   </si>
   <si>
     <t>$.name</t>
@@ -500,6 +500,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -508,7 +516,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,37 +607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,63 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,19 +680,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,157 +842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,30 +865,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -902,6 +878,41 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -924,20 +935,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,31 +965,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1457,7 +1457,7 @@
     <col min="3" max="3" width="66.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
     <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="31.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="16.2222222222222" customWidth="1"/>
   </cols>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记信息发工资了比新嫩呢</t>
+    <t>用水登记信息发工资了比新嫩呢2222</t>
   </si>
   <si>
     <t>$.name</t>
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -500,6 +500,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -509,36 +538,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,20 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -590,40 +591,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,181 +680,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,6 +865,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -883,11 +892,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,41 +948,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>用水登记信息发工资了比新嫩呢2222</t>
+    <t>新信息5555</t>
   </si>
   <si>
     <t>$.name</t>
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -501,6 +501,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -522,8 +582,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,95 +621,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,66 +680,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -747,114 +855,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,8 +871,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,75 +965,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>新信息5555</t>
+    <t>谁谁谁</t>
   </si>
   <si>
     <t>$.name</t>
@@ -501,16 +501,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,6 +524,82 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,75 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -614,15 +622,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -674,187 +674,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,8 +871,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,6 +892,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -899,24 +938,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,32 +957,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1446,8 +1446,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/jiekou/case1.xlsx
+++ b/jiekou/case1.xlsx
@@ -442,7 +442,7 @@
     <t>http://124.225.222.184:90/xzsp/rest/item/get/itemDetails/734121846068490240/APP</t>
   </si>
   <si>
-    <t>谁谁谁</t>
+    <t>水箱67777777777</t>
   </si>
   <si>
     <t>$.name</t>
@@ -494,12 +494,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -507,11 +546,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,7 +569,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,13 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -552,51 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -606,23 +622,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -674,187 +674,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,80 +865,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -965,16 +891,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,131 +983,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
